--- a/interfaces/projects/workspace/test_crm.xlsx
+++ b/interfaces/projects/workspace/test_crm.xlsx
@@ -1,363 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15320"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="15320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="crm-登录模块excel" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="crm-登录模块excel" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>request_type</t>
-  </si>
-  <si>
-    <t>payload</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>extract</t>
-  </si>
-  <si>
-    <t>assert_response</t>
-  </si>
-  <si>
-    <t>assert_sql</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>case_login_excel_01</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>登录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>用户名密码正确，登录成功</t>
-    </r>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>/api/crm/v4/user/login</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'application/json; charset=utf-8;'}</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>{"username":"admin","password":"123123","appPlatform":"work-space","appVersion":"1.0.1"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {'username': '$.data.user.username', 'openid': '$.data.user.openid'}</t>
-  </si>
-  <si>
-    <t>{'eq': {'http_code': 200, '$.username': admin}</t>
-  </si>
-  <si>
-    <t>case_login_excel_02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>用户名正确，密码错误，登录失败</t>
-    </r>
-  </si>
-  <si>
-    <t>trivial</t>
-  </si>
-  <si>
-    <t>{"username":"admin","password":"12313","appPlatform":"work-space","appVersion":"1.0.1"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {'eq': {'http_code': 200, '$.status': -2}}</t>
-  </si>
-  <si>
-    <t>case_login_excel_03</t>
-  </si>
-  <si>
-    <t>用户名错误，密码正确，登录失败</t>
-  </si>
-  <si>
-    <t>{"username":"admins","password":"12313","appPlatform":"work-space","appVersion":"1.0.1"}</t>
-  </si>
-  <si>
-    <t>{'eq': {'http_code': 200, '$.user_id': 84954}, 'in': {'$.login': 'auotest'}, 'gt': {'$.user_id': 84955}, 'lt': {'$.user_id': 84953}, 'not': {'$.user_id': 85390}}</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="26">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -678,179 +526,179 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,18 +754,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00FFFF00"/>
-      <color rgb="00000000"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -1177,210 +1014,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08928571428571" defaultRowHeight="15.2" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.08928571428571" defaultRowHeight="15.2" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9.08928571428571" style="1"/>
-    <col min="2" max="2" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5178571428571" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.08928571428571" style="1"/>
+    <col width="9.08928571428571" customWidth="1" style="8" min="1" max="1"/>
+    <col width="11.2857142857143" customWidth="1" style="8" min="2" max="2"/>
+    <col width="18.7142857142857" customWidth="1" style="8" min="3" max="4"/>
+    <col width="23.1428571428571" customWidth="1" style="2" min="5" max="5"/>
+    <col width="37.5714285714286" customWidth="1" style="8" min="6" max="6"/>
+    <col width="12.4285714285714" customWidth="1" style="8" min="7" max="7"/>
+    <col width="10" customWidth="1" style="8" min="8" max="8"/>
+    <col width="17.4285714285714" customWidth="1" style="8" min="9" max="9"/>
+    <col width="14.8571428571429" customWidth="1" style="8" min="10" max="10"/>
+    <col width="22.1428571428571" customWidth="1" style="8" min="11" max="11"/>
+    <col width="20" customWidth="1" style="8" min="12" max="12"/>
+    <col width="26.5178571428571" customWidth="1" style="8" min="13" max="13"/>
+    <col width="13.4285714285714" customWidth="1" style="8" min="14" max="14"/>
+    <col width="9.08928571428571" customWidth="1" style="8" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>cookies</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>request_type</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>extract</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>assert_response</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>assert_sql</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>markers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="92" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>case_login_excel_01</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>用户名密码正确，登录成功</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>/api/crm/v4/user/login</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json; charset=utf-8;'}</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>{"username":"admin","password":"123123","appPlatform":"work-space","appVersion":"1.0.1"}</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="n"/>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {'username': '$.data.user.username', 'openid': '$.data.user.openid'}</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>{'eq': {'http_code': 200, '$.username': admin}</t>
+        </is>
+      </c>
+      <c r="O2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="92" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>case_login_excel_02</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>用户名正确，密码错误，登录失败</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>trivial</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>/api/crm/v4/user/login</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json; charset=utf-8;'}</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>{"username":"admin","password":"12313","appPlatform":"work-space","appVersion":"1.0.1"}</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       </t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {'eq': {'http_code': 200, '$.status': -2}}</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="92" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="b">
-        <v>1</v>
+    <row r="4" ht="92" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>case_login_excel_03</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>用户名错误，密码正确，登录失败</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>trivial</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>/api/crm/v4/user/login</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json; charset=utf-8;'}</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>{"username":"admins","password":"12313","appPlatform":"work-space","appVersion":"1.0.1"}</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="n"/>
+      <c r="M4" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {'eq': {'http_code': 200, '$.status': -2}}</t>
+        </is>
+      </c>
+      <c r="O4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>smoke</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="92" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="92" spans="1:15">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="76" spans="1:15">
-      <c r="M5" s="6" t="s">
-        <v>35</v>
+    <row r="5" ht="76" customHeight="1">
+      <c r="M5" s="8" t="inlineStr">
+        <is>
+          <t>{'eq': {'http_code': 200, '$.user_id': 84954}, 'in': {'$.login': 'auotest'}, 'gt': {'$.user_id': 84955}, 'lt': {'$.user_id': 84953}, 'not': {'$.user_id': 85390}}</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>